--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Bmp7-Acvr2b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Bmp7-Acvr2b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Acvr2b</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.51625</v>
+        <v>0.03443933333333333</v>
       </c>
       <c r="H2">
-        <v>1.54875</v>
+        <v>0.103318</v>
       </c>
       <c r="I2">
-        <v>0.9148183742193402</v>
+        <v>0.05823261822459219</v>
       </c>
       <c r="J2">
-        <v>0.9148183742193402</v>
+        <v>0.0582326182245922</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.285895333333333</v>
+        <v>1.716657</v>
       </c>
       <c r="N2">
-        <v>3.857686</v>
+        <v>5.149971</v>
       </c>
       <c r="O2">
-        <v>0.3864259878905995</v>
+        <v>0.3840886036988016</v>
       </c>
       <c r="P2">
-        <v>0.3864259878905995</v>
+        <v>0.3840886036988015</v>
       </c>
       <c r="Q2">
-        <v>0.6638434658333333</v>
+        <v>0.05912052264199999</v>
       </c>
       <c r="R2">
-        <v>5.9745911925</v>
+        <v>0.532084703778</v>
       </c>
       <c r="S2">
-        <v>0.3535095939981807</v>
+        <v>0.022366485023609</v>
       </c>
       <c r="T2">
-        <v>0.3535095939981807</v>
+        <v>0.022366485023609</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.51625</v>
+        <v>0.03443933333333333</v>
       </c>
       <c r="H3">
-        <v>1.54875</v>
+        <v>0.103318</v>
       </c>
       <c r="I3">
-        <v>0.9148183742193402</v>
+        <v>0.05823261822459219</v>
       </c>
       <c r="J3">
-        <v>0.9148183742193402</v>
+        <v>0.0582326182245922</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>1.055252</v>
       </c>
       <c r="O3">
-        <v>0.1057050253891921</v>
+        <v>0.07870146593648156</v>
       </c>
       <c r="P3">
-        <v>0.1057050253891921</v>
+        <v>0.07870146593648154</v>
       </c>
       <c r="Q3">
-        <v>0.1815912816666667</v>
+        <v>0.01211405845955556</v>
       </c>
       <c r="R3">
-        <v>1.634321535</v>
+        <v>0.109026526136</v>
       </c>
       <c r="S3">
-        <v>0.09670089947335479</v>
+        <v>0.004582992419594877</v>
       </c>
       <c r="T3">
-        <v>0.09670089947335479</v>
+        <v>0.004582992419594877</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.51625</v>
+        <v>0.03443933333333333</v>
       </c>
       <c r="H4">
-        <v>1.54875</v>
+        <v>0.103318</v>
       </c>
       <c r="I4">
-        <v>0.9148183742193402</v>
+        <v>0.05823261822459219</v>
       </c>
       <c r="J4">
-        <v>0.9148183742193402</v>
+        <v>0.0582326182245922</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.093401</v>
+        <v>1.677572333333333</v>
       </c>
       <c r="N4">
-        <v>3.280203</v>
+        <v>5.032717</v>
       </c>
       <c r="O4">
-        <v>0.328579279069553</v>
+        <v>0.3753437146230962</v>
       </c>
       <c r="P4">
-        <v>0.3285792790695531</v>
+        <v>0.3753437146230962</v>
       </c>
       <c r="Q4">
-        <v>0.5644682662499999</v>
+        <v>0.05777447277844443</v>
       </c>
       <c r="R4">
-        <v>5.08021439625</v>
+        <v>0.5199702550059999</v>
       </c>
       <c r="S4">
-        <v>0.3005903618805714</v>
+        <v>0.02185724723664705</v>
       </c>
       <c r="T4">
-        <v>0.3005903618805714</v>
+        <v>0.02185724723664705</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.51625</v>
+        <v>0.03443933333333333</v>
       </c>
       <c r="H5">
-        <v>1.54875</v>
+        <v>0.103318</v>
       </c>
       <c r="I5">
-        <v>0.9148183742193402</v>
+        <v>0.05823261822459219</v>
       </c>
       <c r="J5">
-        <v>0.9148183742193402</v>
+        <v>0.0582326182245922</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5966156666666667</v>
+        <v>0.7234496666666667</v>
       </c>
       <c r="N5">
-        <v>1.789847</v>
+        <v>2.170349</v>
       </c>
       <c r="O5">
-        <v>0.1792897076506553</v>
+        <v>0.1618662157416207</v>
       </c>
       <c r="P5">
-        <v>0.1792897076506553</v>
+        <v>0.1618662157416207</v>
       </c>
       <c r="Q5">
-        <v>0.3080028379166667</v>
+        <v>0.02491512422022222</v>
       </c>
       <c r="R5">
-        <v>2.77202554125</v>
+        <v>0.224236117982</v>
       </c>
       <c r="S5">
-        <v>0.1640175188672333</v>
+        <v>0.009425893544741276</v>
       </c>
       <c r="T5">
-        <v>0.1640175188672333</v>
+        <v>0.009425893544741276</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,13 +770,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -785,16 +785,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.04806966666666667</v>
+        <v>0.51625</v>
       </c>
       <c r="H6">
-        <v>0.144209</v>
+        <v>1.54875</v>
       </c>
       <c r="I6">
-        <v>0.08518162578065978</v>
+        <v>0.8729143757654733</v>
       </c>
       <c r="J6">
-        <v>0.08518162578065978</v>
+        <v>0.8729143757654734</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.285895333333333</v>
+        <v>1.716657</v>
       </c>
       <c r="N6">
-        <v>3.857686</v>
+        <v>5.149971</v>
       </c>
       <c r="O6">
-        <v>0.3864259878905995</v>
+        <v>0.3840886036988016</v>
       </c>
       <c r="P6">
-        <v>0.3864259878905995</v>
+        <v>0.3840886036988015</v>
       </c>
       <c r="Q6">
-        <v>0.06181256004155556</v>
+        <v>0.8862241762499999</v>
       </c>
       <c r="R6">
-        <v>0.5563130403740001</v>
+        <v>7.97601758625</v>
       </c>
       <c r="S6">
-        <v>0.03291639389241881</v>
+        <v>0.3352764637363717</v>
       </c>
       <c r="T6">
-        <v>0.03291639389241881</v>
+        <v>0.3352764637363717</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,13 +832,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -847,16 +847,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.04806966666666667</v>
+        <v>0.51625</v>
       </c>
       <c r="H7">
-        <v>0.144209</v>
+        <v>1.54875</v>
       </c>
       <c r="I7">
-        <v>0.08518162578065978</v>
+        <v>0.8729143757654733</v>
       </c>
       <c r="J7">
-        <v>0.08518162578065978</v>
+        <v>0.8729143757654734</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>1.055252</v>
       </c>
       <c r="O7">
-        <v>0.1057050253891921</v>
+        <v>0.07870146593648156</v>
       </c>
       <c r="P7">
-        <v>0.1057050253891921</v>
+        <v>0.07870146593648154</v>
       </c>
       <c r="Q7">
-        <v>0.01690853729644445</v>
+        <v>0.1815912816666667</v>
       </c>
       <c r="R7">
-        <v>0.152176835668</v>
+        <v>1.634321535</v>
       </c>
       <c r="S7">
-        <v>0.009004125915837304</v>
+        <v>0.06869964100977145</v>
       </c>
       <c r="T7">
-        <v>0.009004125915837302</v>
+        <v>0.06869964100977145</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,13 +894,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -909,16 +909,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.04806966666666667</v>
+        <v>0.51625</v>
       </c>
       <c r="H8">
-        <v>0.144209</v>
+        <v>1.54875</v>
       </c>
       <c r="I8">
-        <v>0.08518162578065978</v>
+        <v>0.8729143757654733</v>
       </c>
       <c r="J8">
-        <v>0.08518162578065978</v>
+        <v>0.8729143757654734</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.093401</v>
+        <v>1.677572333333333</v>
       </c>
       <c r="N8">
-        <v>3.280203</v>
+        <v>5.032717</v>
       </c>
       <c r="O8">
-        <v>0.328579279069553</v>
+        <v>0.3753437146230962</v>
       </c>
       <c r="P8">
-        <v>0.3285792790695531</v>
+        <v>0.3753437146230962</v>
       </c>
       <c r="Q8">
-        <v>0.052559421603</v>
+        <v>0.8660467170833333</v>
       </c>
       <c r="R8">
-        <v>0.473034794427</v>
+        <v>7.79442045375</v>
       </c>
       <c r="S8">
-        <v>0.02798891718898164</v>
+        <v>0.327642924347714</v>
       </c>
       <c r="T8">
-        <v>0.02798891718898165</v>
+        <v>0.327642924347714</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,10 +956,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
@@ -971,16 +971,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.04806966666666667</v>
+        <v>0.51625</v>
       </c>
       <c r="H9">
-        <v>0.144209</v>
+        <v>1.54875</v>
       </c>
       <c r="I9">
-        <v>0.08518162578065978</v>
+        <v>0.8729143757654733</v>
       </c>
       <c r="J9">
-        <v>0.08518162578065978</v>
+        <v>0.8729143757654734</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,276 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.5966156666666667</v>
+        <v>0.7234496666666667</v>
       </c>
       <c r="N9">
-        <v>1.789847</v>
+        <v>2.170349</v>
       </c>
       <c r="O9">
-        <v>0.1792897076506553</v>
+        <v>0.1618662157416207</v>
       </c>
       <c r="P9">
-        <v>0.1792897076506553</v>
+        <v>0.1618662157416207</v>
       </c>
       <c r="Q9">
-        <v>0.02867911622477778</v>
+        <v>0.3734808904166667</v>
       </c>
       <c r="R9">
-        <v>0.258112046023</v>
+        <v>3.36132801375</v>
       </c>
       <c r="S9">
-        <v>0.01527218878342201</v>
+        <v>0.1412953466716163</v>
       </c>
       <c r="T9">
-        <v>0.01527218878342201</v>
+        <v>0.1412953466716163</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.04072033333333334</v>
+      </c>
+      <c r="H10">
+        <v>0.122161</v>
+      </c>
+      <c r="I10">
+        <v>0.06885300600993445</v>
+      </c>
+      <c r="J10">
+        <v>0.06885300600993445</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.716657</v>
+      </c>
+      <c r="N10">
+        <v>5.149971</v>
+      </c>
+      <c r="O10">
+        <v>0.3840886036988016</v>
+      </c>
+      <c r="P10">
+        <v>0.3840886036988015</v>
+      </c>
+      <c r="Q10">
+        <v>0.06990284525900001</v>
+      </c>
+      <c r="R10">
+        <v>0.629125607331</v>
+      </c>
+      <c r="S10">
+        <v>0.02644565493882092</v>
+      </c>
+      <c r="T10">
+        <v>0.02644565493882092</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.04072033333333334</v>
+      </c>
+      <c r="H11">
+        <v>0.122161</v>
+      </c>
+      <c r="I11">
+        <v>0.06885300600993445</v>
+      </c>
+      <c r="J11">
+        <v>0.06885300600993445</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.3517506666666667</v>
+      </c>
+      <c r="N11">
+        <v>1.055252</v>
+      </c>
+      <c r="O11">
+        <v>0.07870146593648156</v>
+      </c>
+      <c r="P11">
+        <v>0.07870146593648154</v>
+      </c>
+      <c r="Q11">
+        <v>0.01432340439688889</v>
+      </c>
+      <c r="R11">
+        <v>0.128910639572</v>
+      </c>
+      <c r="S11">
+        <v>0.005418832507115216</v>
+      </c>
+      <c r="T11">
+        <v>0.005418832507115215</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.04072033333333334</v>
+      </c>
+      <c r="H12">
+        <v>0.122161</v>
+      </c>
+      <c r="I12">
+        <v>0.06885300600993445</v>
+      </c>
+      <c r="J12">
+        <v>0.06885300600993445</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1.677572333333333</v>
+      </c>
+      <c r="N12">
+        <v>5.032717</v>
+      </c>
+      <c r="O12">
+        <v>0.3753437146230962</v>
+      </c>
+      <c r="P12">
+        <v>0.3753437146230962</v>
+      </c>
+      <c r="Q12">
+        <v>0.06831130460411111</v>
+      </c>
+      <c r="R12">
+        <v>0.6148017414370001</v>
+      </c>
+      <c r="S12">
+        <v>0.02584354303873517</v>
+      </c>
+      <c r="T12">
+        <v>0.02584354303873516</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.04072033333333334</v>
+      </c>
+      <c r="H13">
+        <v>0.122161</v>
+      </c>
+      <c r="I13">
+        <v>0.06885300600993445</v>
+      </c>
+      <c r="J13">
+        <v>0.06885300600993445</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.7234496666666667</v>
+      </c>
+      <c r="N13">
+        <v>2.170349</v>
+      </c>
+      <c r="O13">
+        <v>0.1618662157416207</v>
+      </c>
+      <c r="P13">
+        <v>0.1618662157416207</v>
+      </c>
+      <c r="Q13">
+        <v>0.02945911157655556</v>
+      </c>
+      <c r="R13">
+        <v>0.265132004189</v>
+      </c>
+      <c r="S13">
+        <v>0.01114497552526316</v>
+      </c>
+      <c r="T13">
+        <v>0.01114497552526316</v>
       </c>
     </row>
   </sheetData>
